--- a/result.xlsx
+++ b/result.xlsx
@@ -11,105 +11,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Запрос для поиска</t>
-  </si>
-  <si>
-    <t>Наша цена</t>
-  </si>
-  <si>
-    <t>price1</t>
-  </si>
-  <si>
-    <t>shopName1</t>
-  </si>
-  <si>
-    <t>delevery1</t>
-  </si>
-  <si>
-    <t>link1</t>
-  </si>
-  <si>
-    <t>price2</t>
-  </si>
-  <si>
-    <t>shopName2</t>
-  </si>
-  <si>
-    <t>delevery2</t>
-  </si>
-  <si>
-    <t>link2</t>
-  </si>
-  <si>
-    <t>price3</t>
-  </si>
-  <si>
-    <t>shopName3</t>
-  </si>
-  <si>
-    <t>delevery3</t>
-  </si>
-  <si>
-    <t>link3</t>
-  </si>
-  <si>
-    <t>Дата-кабель Type-C Baseus Cafule PD2.0 60W (20V 3A), 1м, (черный) (CATKLF-GG1)</t>
-  </si>
-  <si>
-    <t>CATKLF-GG1</t>
-  </si>
-  <si>
-    <t>EcoPozit</t>
-  </si>
-  <si>
-    <t>Послезавтра</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/kabel-usb-type-c-usb-type-c-1m-baseus-cafule-series-type-c-pd2-0-chernyy-catklf-gg1-428151924/?asb=zBJ1kwppnMUUEHKp5hrp9%252FSGVEyIAg7es6T2qBJ3d8We%252FOff%252FFtalhgjItFpuM%252FE&amp;asb2=mFSVbiJTWvgxiWR5PzSScSSuqa6QvK8CStA84cRqETKdsMMmp6C8zEIRateIC73igAY28vsB8mcqlXNoTT9YeF-yKGYeu_RIseZk_ka2vzdzvP2f24GyG26L45I8QHkThdMxe1Rn13xO1EgGghZcvg&amp;keywords=CATKLF-GG1</t>
-  </si>
-  <si>
-    <t>InnoZone</t>
-  </si>
-  <si>
-    <t>24 июня</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/kabel-usb-type-c-usb-type-c-1m-baseus-cafule-series-type-c-pd2-0-chernyy-catklf-gg1-155136799/?asb=6lBM75Itq8oULsJosmxckv87P0WX7%252F%252BiX5Ip%252BukbO%252Ff7AI4bAePONmLu12XLc5OL&amp;asb2=MFhbTfuyNL1sygDc-AlDXjQ_BFJJhUabdtw0oxCqMPavNtYmrsZwNegP4JsvfNl-WfYCtDXjiW_eP-4e1-3FXj2YMYY8l6AmVDUeuvddVHcFkYed324YjFWwE6ahCAWGvDGpuV4jDD3Irw_od55c_g&amp;keywords=CATKLF-GG1</t>
-  </si>
-  <si>
-    <t>Progadget</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/kabel-usb-type-c-usb-type-c-1m-baseus-cafule-series-type-c-pd2-0-catklf-gg1-chernyy-156225994/?asb=zHZ7W36PH%252Fo1BBqGMswPnEz5qQ2aEulttWAq%252BLlzhl4%253D&amp;asb2=OrOibQOVEG7sCFi9pGAlHXDFyUZ71XpWUHpgM2vEW7YSL2-PkEjJg21Fq9vTH2Ol&amp;keywords=CATKLF-GG1</t>
-  </si>
-  <si>
-    <t>catklf-g91</t>
-  </si>
-  <si>
-    <t>Baseus.Official</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/kabel-baseus-catklf-g91-chernyy-525913849/?asb=6sbM2%252BzwN8YzyiqSBySR6So8lhEa%252Fp5b%252BaHAemFVlZw%253D&amp;asb2=lZ5gikPJ1YWITPYHx-dqPdBCo_uCoa5Dy0YhRO-k-H8sU8QT03k4a1UCaC3QEHYa&amp;keywords=catklf-g91</t>
-  </si>
-  <si>
-    <t>Диксис</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/kabel-baseus-cafule-series-type-c-pd2-0-60w-flash-charge-cable-20v-3a-1m-catklf-g91-238500677/?asb=QXbN3lYOW1iQoDLMOFuVWVB7hDczQLZetNCCtMYC%252Feo%253D&amp;asb2=yO2JuW2SJWcPm1-IwKgrN-YUYJU6ze4RAWrHFn1q3aMgEtxSUgs_zBugHDWmxbDq&amp;keywords=catklf-g91</t>
-  </si>
-  <si>
-    <t>Мир аксессуаров</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/kabel-baseus-catklf-g91-chernyy-264731753/?asb=oihdCbIuSHX1Q3YJXdVn3iIPBLuWK5cfv8InW4wzKW8%253D&amp;asb2=nAx1iaA_fdSMUFsb77nYyI9t3YhX2ySuI8DxvHirvb0YAQ0IcE3sC6UuJezDdzxP&amp;keywords=catklf-g91</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>persent</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>Зеркало интерьерное в раме 60 x 60 см, модель P047039</t>
+  </si>
+  <si>
+    <t>000056788</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Зеркало для ванной комнаты Bellezza Рио 70 R черно/белое</t>
+  </si>
+  <si>
+    <t>00006787</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Зеркало на гибком стержне, 600 мм мастак 192-00600</t>
+  </si>
+  <si>
+    <t>00067887</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Зеркало "Гойя" (19С. Gold)</t>
+  </si>
+  <si>
+    <t>0000578868</t>
+  </si>
+  <si>
+    <t>ALKAR 6432394 Зеркало правое выпуклое с подогревом</t>
+  </si>
+  <si>
+    <t>0005678</t>
+  </si>
+  <si>
+    <t>Подсветка для зеркал Lussole Selvino GRLSA-7711-02</t>
+  </si>
+  <si>
+    <t>0098668</t>
+  </si>
+  <si>
+    <t>Зеркало в широкой раме 70 x 90 см, модель P062008</t>
+  </si>
+  <si>
+    <t>0005688</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Зеркало с полкой Рокко 60 бежевый</t>
+  </si>
+  <si>
+    <t>00056776</t>
+  </si>
+  <si>
+    <t>Зеркало интерьерное Дом Корлеоне Зеркало настенное Эмбер 65 х 80 см</t>
+  </si>
+  <si>
+    <t>00076567</t>
+  </si>
+  <si>
+    <t>Зеркало интерьерное, Зеркало настенное Мироша</t>
+  </si>
+  <si>
+    <t>0008787е</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Подсветка для зеркал ЭРА CL-01-4W-6500К Б0045708</t>
+  </si>
+  <si>
+    <t>0005785858</t>
+  </si>
+  <si>
+    <t>Зеркало интерьерное Аурита, 60 см х 40 см</t>
+  </si>
+  <si>
+    <t>00056758758</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>Зеркало интерьерное, Зеркало декоративное, Зеркало настенное 118х46,5 см TODA ALMA</t>
+  </si>
+  <si>
+    <t>000354758</t>
+  </si>
+  <si>
+    <t>Зеркало напольное, Большое зеркало в полный рост, Зеркало в спальню, Зеркало интерьерное, Зеркало на подставке TODA ALMA 70 см х 180 см</t>
+  </si>
+  <si>
+    <t>000357876</t>
+  </si>
+  <si>
+    <t>Статическая наклейка для окон и зеркал Room Decor "Дедушка мороз и зверушки" 29х41 см</t>
+  </si>
+  <si>
+    <t>000044747</t>
+  </si>
+  <si>
+    <t>Наклейка интерьерная "Птицы 2" 97х36,5 см/декор, интерьер, зеркало, стена, мебель/, виниловая</t>
+  </si>
+  <si>
+    <t>0004576767</t>
+  </si>
+  <si>
+    <t>Подсветка для зеркал SLV WL 106 1002229</t>
+  </si>
+  <si>
+    <t>000587587</t>
+  </si>
+  <si>
+    <t>Подставки для конфорок, 2 штуки (арт. AN57-77)</t>
+  </si>
+  <si>
+    <t>0009876876</t>
+  </si>
+  <si>
+    <t>Столик подставка для ноутбука / Стол для ноутбука с вентиляцией и регулировкой наклона и высоты / Столик для ноутбука</t>
+  </si>
+  <si>
+    <t>000578</t>
+  </si>
+  <si>
+    <t>78.2</t>
+  </si>
+  <si>
+    <t>Круглое зеркало лофт, маниша</t>
+  </si>
+  <si>
+    <t>0002235</t>
+  </si>
+  <si>
+    <t>Интерьерное зеркало круглое 80 см, белое</t>
+  </si>
+  <si>
+    <t>123321</t>
   </si>
 </sst>
 </file>
@@ -486,13 +552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:D22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="16" width="30" customWidth="1"/>
+    <col min="1" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,132 +571,299 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2">
-        <v>390</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>777</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="M2">
-        <v>739</v>
-      </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="D3">
-        <v>321</v>
-      </c>
-      <c r="E3">
-        <v>330</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="I3">
-        <v>490</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="M3">
-        <v>490</v>
-      </c>
-      <c r="N3" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="B12" t="s">
         <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>sku</t>
   </si>
@@ -38,33 +38,6 @@
   </si>
   <si>
     <t>МГ/КГ</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Эмаль ПРЕСТИЖ алкидная глянцевая, оранжевый, 425 мл</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>МГ</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>Эмаль ПРЕСТИЖ алкидная глянцевая, огненно-красный, 425 мл</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>525</t>
   </si>
 </sst>
 </file>
@@ -441,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -471,58 +444,6 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>-0.48120567375886525</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>127.05</v>
-      </c>
-      <c r="H2">
-        <v>3.5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>1.0023809523809524</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>186.25</v>
-      </c>
-      <c r="H3">
-        <v>12.5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -11,33 +11,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="63">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>sku</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Категория товара</t>
-  </si>
-  <si>
-    <t>Цена продажи</t>
-  </si>
-  <si>
-    <t>Эффективность</t>
-  </si>
-  <si>
-    <t>Закупка</t>
-  </si>
-  <si>
-    <t>Комиссия маркетплейса</t>
-  </si>
-  <si>
-    <t>Реклама</t>
-  </si>
-  <si>
-    <t>МГ/КГ</t>
+    <t>persent</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>comission</t>
+  </si>
+  <si>
+    <t>Сплит-система Kraft KF-CSE-35GW/B inv</t>
+  </si>
+  <si>
+    <t>227199</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Сплит-система KRAFT KF-CS-20GW/B</t>
+  </si>
+  <si>
+    <t>206521</t>
+  </si>
+  <si>
+    <t>LED телевизор Kraft KTV-P43FHD02T2CIWL</t>
+  </si>
+  <si>
+    <t>364979</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>Холодильник KRAFT KF-DF205W белый</t>
+  </si>
+  <si>
+    <t>373165</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>Микроволновая печь Kraft Technology TCH-20A7301MJ</t>
+  </si>
+  <si>
+    <t>364812</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>Микроволновая печь KRAFT KF20MW7W-101M, белый</t>
+  </si>
+  <si>
+    <t>337590</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>Микроволновая печь KRAFT KF20MW7S-300D, серебристый</t>
+  </si>
+  <si>
+    <t>332596</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Микроволновая печь KRAFT KF20MW7S-200M, серебристый</t>
+  </si>
+  <si>
+    <t>341817</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>Стиральная машина Kraft Technology TCH-UME7201W</t>
+  </si>
+  <si>
+    <t>334258</t>
+  </si>
+  <si>
+    <t>3339</t>
+  </si>
+  <si>
+    <t>Стиральная машина KRAFT TCH-UME5501W белый</t>
+  </si>
+  <si>
+    <t>397804</t>
+  </si>
+  <si>
+    <t>3099</t>
+  </si>
+  <si>
+    <t>Стиральная машина KRAFT TCH-UMD8201W, белый</t>
+  </si>
+  <si>
+    <t>334257</t>
+  </si>
+  <si>
+    <t>3307</t>
+  </si>
+  <si>
+    <t>Стиральная машина с сушкой Kraft Technology TCH-HD8586SW</t>
+  </si>
+  <si>
+    <t>392469</t>
+  </si>
+  <si>
+    <t>3899</t>
+  </si>
+  <si>
+    <t>Стиральная машина KRAFT KF-UME7202W, белый</t>
+  </si>
+  <si>
+    <t>395514</t>
+  </si>
+  <si>
+    <t>2859</t>
+  </si>
+  <si>
+    <t>Стиральная машина KRAFT KF-UME6201W, белый</t>
+  </si>
+  <si>
+    <t>395513</t>
+  </si>
+  <si>
+    <t>2747</t>
+  </si>
+  <si>
+    <t>Стиральная машина KRAFT KF-EN6104W, белый</t>
+  </si>
+  <si>
+    <t>333762</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>Газовая плита KRAFT KF-FSK6407AGWI</t>
+  </si>
+  <si>
+    <t>364575</t>
+  </si>
+  <si>
+    <t>2539</t>
+  </si>
+  <si>
+    <t>Комбинированная плита KRAFT KF-FSK6407AEWI</t>
+  </si>
+  <si>
+    <t>364507</t>
+  </si>
+  <si>
+    <t>Комбинированная плита KRAFT KF-FSK6405AEWI</t>
+  </si>
+  <si>
+    <t>348148</t>
+  </si>
+  <si>
+    <t>2379</t>
+  </si>
+  <si>
+    <t>Комбинированная плита KRAFT KF-FSK6405AEBRI</t>
+  </si>
+  <si>
+    <t>348147</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>Газовая плита Kraft KF-FSK6403AGW</t>
+  </si>
+  <si>
+    <t>337589</t>
+  </si>
+  <si>
+    <t>1979</t>
   </si>
 </sst>
 </file>
@@ -414,10 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:E41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="5" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,17 +598,685 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
